--- a/misc/translations/en_kh.xlsx
+++ b/misc/translations/en_kh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/ACORN/acorn-dashboard/misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/ACORN/acorn-dashboard/misc/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F2E59B-D716-194D-A3A7-7FD55E44CC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9DE7666-FB7F-F14A-8327-9A3B8E8D33F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="6340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="365">
   <si>
     <t>en</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Welcome</t>
   </si>
   <si>
-    <t>TBT</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
@@ -575,13 +572,556 @@
   </si>
   <si>
     <t>kh</t>
+  </si>
+  <si>
+    <t>សូមស្វាគមន៍</t>
+  </si>
+  <si>
+    <t>ភាសា</t>
+  </si>
+  <si>
+    <t>ប្រទេសដែលចូលរួមការអង្កេតតាមដាន​ ACORN</t>
+  </si>
+  <si>
+    <t>តើ ACORN គឺជាអ្វី?</t>
+  </si>
+  <si>
+    <t>អំពី</t>
+  </si>
+  <si>
+    <t>សូមចុះឈ្មោះចូល</t>
+  </si>
+  <si>
+    <t>ទីតាំង</t>
+  </si>
+  <si>
+    <t>អ្នកប្រើប្រាស់</t>
+  </si>
+  <si>
+    <t>ពាក្យសម្ងាត់</t>
+  </si>
+  <si>
+    <t>ការគ្រប់គ្រងទិន្នន័យ</t>
+  </si>
+  <si>
+    <t>តើអ្នកចង់ធ្វើអ្វី?</t>
+  </si>
+  <si>
+    <t>កំពុងបង្កើតឯកសារ .acorn</t>
+  </si>
+  <si>
+    <t>.acorn មិនត្រូវបានរក្សាទុកទេ</t>
+  </si>
+  <si>
+    <t>មិនបានភ្ជាប់ទៅនឹងអ៊ីនធឺណិត</t>
+  </si>
+  <si>
+    <t>កំពុងព្យាយាមភ្ជាប់</t>
+  </si>
+  <si>
+    <t>ទិន្នន័យគ្លីនិកមិនត្រូវបានផ្តល់</t>
+  </si>
+  <si>
+    <t>ទិន្នន័យមន្ទីរពិសោធន៍មិនត្រូវបានផ្តល់</t>
+  </si>
+  <si>
+    <t>គ្មានទិន្នន័យ .acorn ត្រូវបានបង្កើត</t>
+  </si>
+  <si>
+    <t>គ្មានទិន្នន័យ .acorn ត្រូវបានរក្សាទុក</t>
+  </si>
+  <si>
+    <t>បង្កើត .acorn ពីទិន្នន័យគ្លីនិកនិងមន្ទីរពិសោធន៍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">រក្សាទុកទិន្នន័យ acorn </t>
+  </si>
+  <si>
+    <t>បដិសេដ</t>
+  </si>
+  <si>
+    <t>រក្សាទុកក្នុងម៉ាស៊ីនមេ</t>
+  </si>
+  <si>
+    <t>(១/៤) ទាយយកទិន្នន័យគ្លីនិក</t>
+  </si>
+  <si>
+    <t>ទាយទិន្នន័យពី REDCap</t>
+  </si>
+  <si>
+    <t>(២/៤) ផ្តល់ទិន្នន័យមន្ទីរពិសោធន៍</t>
+  </si>
+  <si>
+    <t>រក្សាទុកឯកសារ .acorn</t>
+  </si>
+  <si>
+    <t>បង្កើតឯកសារ .acorn</t>
+  </si>
+  <si>
+    <t>(៤/៤)​ រក្សាទុកឯកសារ .acorn</t>
+  </si>
+  <si>
+    <t>ទិដ្ឋភាពទូទៅ</t>
+  </si>
+  <si>
+    <t>ថ្ងៃចូលរួមការអង្កេតតាមដាន</t>
+  </si>
+  <si>
+    <t>មើលតាមសប្តាហ៍</t>
+  </si>
+  <si>
+    <t>ការចូលរួមការអង្កេតតាមដានជាមួយការបណ្តុះមេរោគក្នុងឈាម</t>
+  </si>
+  <si>
+    <t>ការចូលរួមការអង្កេតតាមដានតាម​ (ប្រភេទ) អគារ</t>
+  </si>
+  <si>
+    <t>របាយអាយុអ្នកជំងឺ</t>
+  </si>
+  <si>
+    <t>រោគវិនិច្ឆ័យនៅថ្ងៃចូលរួមការអង្កេតតាមដាន</t>
+  </si>
+  <si>
+    <t>អង់ទីប៊ីយ៉ូទិកដែលផ្តល់</t>
+  </si>
+  <si>
+    <t>អ្នកជំងឺដែលបានបញ្ជូនពីមន្ទីរពេទ្យផ្សេង</t>
+  </si>
+  <si>
+    <t>ស្ថានភាពជំងឺបន្សំនានារបស់អ្នកជំងឺ</t>
+  </si>
+  <si>
+    <t>ការតាមដានបន្ត</t>
+  </si>
+  <si>
+    <t>លទ្ធផលគ្លីនិក</t>
+  </si>
+  <si>
+    <t>ស្ថានភាពលទ្ធផលគ្លីនិក៖</t>
+  </si>
+  <si>
+    <t>ថ្ងៃទី២៨</t>
+  </si>
+  <si>
+    <t>ស្ថានភាពថ្ងៃទី២៨៖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ការបង្ករោគដោយសារមេរោគក្នុងឈាម​ (BSI) </t>
+  </si>
+  <si>
+    <t>រោគវិនិច្ឆ័យដំបូង និងចុងក្រោយនៃការចូលរួមការអង្កេតតាមដាន</t>
+  </si>
+  <si>
+    <t>ការរួមបញ្ចូលគ្នានៃរោគវិនិច្ឆ័យដំបូងនិងចុងក្រោយទាំង១០ដែលកើតច្រើនជាងគេ៖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ប្រេវ៉ានឡង់ការបង្ករោគដែលមានប្រភពពីមន្ទីរពេទ្យ </t>
+  </si>
+  <si>
+    <t>ដុះ / មិនដុះ</t>
+  </si>
+  <si>
+    <t>ចុះឈ្មោះចូល</t>
+  </si>
+  <si>
+    <t>ទាញយកបញ្ជីអ្នកចូលរួមការអង្កេតតាមដាន (.xlsx)</t>
+  </si>
+  <si>
+    <t>សន្លឹកទីមួយគឺជាបញ្ជីអ្នកចូលរួមការអង្កេតតាមដានទាំងអស់ដែលបានទាញយកពី REDCap (ដូចទៅនឹងតារាងក្បែរគ្នា)។ សន្លឹកទីពីរគឺជាបញ្ជីនៃកំហុសឆ្គងទាំងអស់។</t>
+  </si>
+  <si>
+    <t>ឈ្មោះឯកសារ៖</t>
+  </si>
+  <si>
+    <t>ជ្រើសរើសទម្រង់នៃទិន្នន័យមន្ទីរពិសោធន៍៖</t>
+  </si>
+  <si>
+    <t>ហើយបង្កើតបញ្ជីអ្នកចូលរួមការអង្កេតតាមដាន</t>
+  </si>
+  <si>
+    <t>របាយអ្នកចូលរួមការអង្កេតតាមដាន</t>
+  </si>
+  <si>
+    <t>អថេរក្នុងតារាង៖</t>
+  </si>
+  <si>
+    <t>បង្ហាញការរួមបញ្ទូលគ្នានៃស្ថានភាពជំងឺបន្សំនានា</t>
+  </si>
+  <si>
+    <t>វត្ថុវិភាគដែលប្រមូលបាន</t>
+  </si>
+  <si>
+    <t>នៃមេរោគគោលដៅ</t>
+  </si>
+  <si>
+    <t>តាមដានយើងនៅលើ Twitter</t>
+  </si>
+  <si>
+    <t>មីក្រូជីវសាស្ត្រ</t>
+  </si>
+  <si>
+    <t>ជាមួយនឹងមីក្រូជីវសាស្ត្រ</t>
+  </si>
+  <si>
+    <t>ទិន្នន័យមន្ទីរពិសោធន៍ដំណើរការដោយជោគជ័យ!</t>
+  </si>
+  <si>
+    <t>បង្កើតទិន្នន័យ .acorn​ ដោយជោគជ័យ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(មិនចាំចាច់) យោលបល់៖ </t>
+  </si>
+  <si>
+    <t>(៣/៤) រួមបញ្ចូលទិន្នន័យគ្លីនិកនិងមន្ទីរពិសោធន៍ចូលគ្នា</t>
+  </si>
+  <si>
+    <t>រួមបញ្ជូលគ្នានៃ Susceptible + Intermediate</t>
+  </si>
+  <si>
+    <t>មេរោគផ្សេងៗទៀតទាំងអស់</t>
+  </si>
+  <si>
+    <t>ការចូលរួមអង្កេតតាមដាន</t>
+  </si>
+  <si>
+    <t>កំណត់តម្រងការចូលរួមអង្កេតតាមដានឡើងវិញ</t>
+  </si>
+  <si>
+    <t>ចំនួនវត្ថុវិភាគតាមប្រភេទនៃវត្ថុវិភាគ</t>
+  </si>
+  <si>
+    <t>ប្រភេទវត្ថុវិភាគ</t>
+  </si>
+  <si>
+    <t>នៃការចូលរួមអង្កេតតាមដាន ជាមួយការបណ្តុះមេរោគក្នុងឈាម។</t>
+  </si>
+  <si>
+    <t xml:space="preserve">នៃការបណ្តុះមេរោគក្នុងឈាមដែលដុះ potential contaminant </t>
+  </si>
+  <si>
+    <t>ការបណ្តុះមេរោគក្នុងឈាម</t>
+  </si>
+  <si>
+    <t>វត្ថុវិភាគផ្សេងៗ៖</t>
+  </si>
+  <si>
+    <t>បង្ហាញតាមខែ</t>
+  </si>
+  <si>
+    <t>បង្ហាញតាមឆ្នាំ</t>
+  </si>
+  <si>
+    <t>HAI point prevalance តាមប្រភេទអគារ</t>
+  </si>
+  <si>
+    <t>ទិន្នន័យ REDCap មិនអាចទាញយកបានទេ។ សូមព្យាយាមម្តងទៀត។</t>
+  </si>
+  <si>
+    <t>កំណត់ត្រាទាំងអស់សុទ្ធតែមាន  ACORN ID ។</t>
+  </si>
+  <si>
+    <t>មិនមែនកំណត់ត្រាទាំងអស់សុទ្ធតែមាន ACORN ID នោះទេ។</t>
+  </si>
+  <si>
+    <t>កំណត់ត្រា D28 (F04) ទាំងអស់ ត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
+  </si>
+  <si>
+    <t>កំណត់ត្រា D28 (F04) ខ្លះមិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
+  </si>
+  <si>
+    <t xml:space="preserve">កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យទាំងអស់(F03) ត្រូវគ្នាជាមួយ វគ្គការបង្ករោគ (F02)។ </t>
+  </si>
+  <si>
+    <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយវគ្គការបង្ករោគ (F02)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
+  </si>
+  <si>
+    <t xml:space="preserve">កំណត់ត្រាវគ្គការបង្ករោគទាំងអស់ (F02) ត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។ </t>
+  </si>
+  <si>
+    <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យទាំងអស់ (F03) ត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន(F01)។</t>
+  </si>
+  <si>
+    <t>អាយុដែលបានគណនាគឺមិនស្របទៅនឹង 'ប្រភេទអាយុ'</t>
+  </si>
+  <si>
+    <t>អាយុដែលបានគណនាគឺស្របទៅនឹង 'ប្រភេទអាយុ'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">គ្មាន isolate ត្រូវជាមួយនឹងលទ្ធផល AST ទេ។ សូមទាក់ទងទៅកាន់ផ្នែកគ្រាំទ្រ ACORN។ </t>
+  </si>
+  <si>
+    <t>‘specdate' ទាំងអស់ត្រូវបានផ្តល់ជូន</t>
+  </si>
+  <si>
+    <t>ទិន្នន័យគ្លីនិកនិង​​មន្ទីរពិសោធន៍ ត្រូវបានរួមបញ្ចូលដោយជោគជ័យទៅក្នុងឯកសារ .acorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">កត់ត្រាក្នុងទិន្នន័យគ្លីនិកនឹងមន្ទីរពិសោធន៍ក្នុងទម្រង់ BSI៖ </t>
+  </si>
+  <si>
+    <t>គ្មានទិន្នន័យការអង្កេតតាមដាន HAI ទេ</t>
+  </si>
+  <si>
+    <t>មិនមានការបណ្តុះមេរោគក្នុងឈាម</t>
+  </si>
+  <si>
+    <t>គ្មានការលុបព័ត៌មានដូចគ្នានៃ isolates ឡើយ</t>
+  </si>
+  <si>
+    <t>លុបព័ត៌មានដូចគ្នាតាមវគ្គបង្ករោគរបស់អ្នកជំងឺ</t>
+  </si>
+  <si>
+    <t>លុបព័ត៌មានដូចគ្នាតាមអត្តសញ្ញាណរបស់អ្នកជំងឺ</t>
+  </si>
+  <si>
+    <t>ប្រើវិធី  heuristic សម្រាប់ខ្នាតពេលវេលា</t>
+  </si>
+  <si>
+    <t>ការចុះឈ្មោះចូលបានជោគជ័យ។</t>
+  </si>
+  <si>
+    <t>ចាកចេញ, បិទកម្មវីធី។</t>
+  </si>
+  <si>
+    <t>បញ្ចូលឯកសារ​ acorn។</t>
+  </si>
+  <si>
+    <t>សំណុំទិន្នន័យ REDCap មានទិន្នន័យ។</t>
+  </si>
+  <si>
+    <t>សំណុំទិន្នន័យ REDCap គ្មានទិន្នន័យ។ សូមធ្វើការទាក់ទងផ្នែកជំនួយ ACORN។</t>
+  </si>
+  <si>
+    <t>ឈ្មោះតារាងជួរឈរនៃសំណុំទិន្នន័យ REDCap​ មិនត្រូវគ្នា។ សូមធ្វើការទាក់ទងផ្នែកជំនួយ ACORN។</t>
+  </si>
+  <si>
+    <t>ឈ្មោះតារាងជួរឈរនៃសំណុំទិន្នន័យ REDCap​ ត្រូវគ្នា។</t>
+  </si>
+  <si>
+    <t>កំហុសឆ្គងសំខាន់ៗក្នុងផ្នែកទិន្នន័យគ្លីនិក។</t>
+  </si>
+  <si>
+    <t>មានបញ្ហាសំខាន់មួយក្នុងផ្នែកទិន្នន័យគ្លីនិក។ បញ្ហាគួរតែកែសម្រួលក្នុង REDCap។</t>
+  </si>
+  <si>
+    <t>ផ្តល់ទិន្នន័យគ្លីនិកដោយជោគជ័យ។</t>
+  </si>
+  <si>
+    <t>កំពុងពិនិត្យនិងផ្ទៀងផ្ទាត់ទិន្នន័យមន្ទីរពិសោធន៍។​</t>
+  </si>
+  <si>
+    <t>កំពុងដំណើរការទិន្នន័យមន្ទីរពិសោធន៍។</t>
+  </si>
+  <si>
+    <t>ផ្តល់ទិន្នន័យគ្លីនិក​និងមន្ទីពិសោធន៍ដែលមានសុពលភាពជាមុន។</t>
+  </si>
+  <si>
+    <t>គ្មានទិន្នន័យ .acorn ត្រូវបានផ្ទុកទេ។​</t>
+  </si>
+  <si>
+    <t>ប្រតិបត្តិការទិន្នន័យ .acorn ពីឯកសារក្នុងកុំព្យូទ័រ</t>
+  </si>
+  <si>
+    <t>ប្រតិបត្តិការទិន្នន័យ .acorn ពី cloud</t>
+  </si>
+  <si>
+    <t>ទិន្នន័យកំពុងតែប្រតិបត្តិការ។</t>
+  </si>
+  <si>
+    <t>ទិន្នន័យប្រតិបត្តិការដោយជោគជ័យ។</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ទាញយកទិន្នន័យពីម៉ាស៊ីនមេ REDCap។ </t>
+  </si>
+  <si>
+    <t>វាប្រហែលចំណាយពេលពីរបីនាទី។  ផ្ទាំងនេះនឹងបិទពេលដំណើរការចប់។</t>
+  </si>
+  <si>
+    <t>រកឃើញបញ្ហាសំខាន់៖ គ្មានទិន្នន័យ ឬខុសទម្រង់ទិន្នន័យនៅលើម៉ាស៊ីនមេ REDCap។ សូមរាយការណ៍ទៅអ្នកគ្រប់គ្រងទិន្នន័យ។ រហូតដល់មានដំណោះស្រាយ មានតែឯកសារ​ .acorn ពីរមុនដែលអាចប្រើប្រាស់បាន។​</t>
+  </si>
+  <si>
+    <t>កំពុងព្យាយាមរក្សាទុកឯកសារ .acorn ក្នុងម៉ាស៊ីនមេ។​</t>
+  </si>
+  <si>
+    <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុងម៉ាស៊ីនមេ។​</t>
+  </si>
+  <si>
+    <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុងកុំព្យូទ័រដោយជោគជ័យ។</t>
+  </si>
+  <si>
+    <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុងកុំព្យូទ័រដោយជោគជ័យ។​ ឥឡូវ​នេះអ្នកអាចពិនិត្យមើលទិន្នន័យ acorn</t>
+  </si>
+  <si>
+    <t>ឯកសារ .acorn ត្រូវបានរក្សាទុកក្នុង cloud ដោយជោគជ័យ។ ឥឡូវ​នេះអ្នកអាចពិនិត្យមើលទិន្នន័យ acorn។</t>
+  </si>
+  <si>
+    <t>ពិចារណាក្នុងការរក្សាទុកឯកសារ .acorn ក្នុង cloud សម្រាប់ការបន្ថែមសុវត្ថិភាព</t>
+  </si>
+  <si>
+    <t xml:space="preserve">បូមឈាមបណ្តុំមេរោគក្នុងកំឡុងពេល២៤ម៉ោងនៃការសម្រាកពេទ្យ (CAI) / ការចាប់ផ្តើមការចេញរោគសញ្ញា (HAI) </t>
+  </si>
+  <si>
+    <t>អត្រាសម្រាកពេទ្យតាមអគារ</t>
+  </si>
+  <si>
+    <t>លុបចោលនូវការបណ្តុះមេរោគក្នុងឈាមដែល contaminants ពីរូបភាពខាងក្រោម</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ការបណ្តុះមេរោគក្នុងឈាមដែល contaminants </t>
+  </si>
+  <si>
+    <t>លទ្ធផលការបណ្តុះមេរោគតាមប្រភេទវត្ថុវិភាគ</t>
+  </si>
+  <si>
+    <t>មេរោគចំនួន១០ ដែលបានរកឃើញញឹកញាប់បំផុត គឺដាក់នៅក្នុងគំនូរតាង​ និងបញ្ជីពេញលេញនៅក្នុងតារាង។ Contaminants គឺពណ៌ ក្រហម ។</t>
+  </si>
+  <si>
+    <t>គួរតែយកចិត្តទុកដាក់នៅ ពេលបកស្រាយ អត្រានិងទម្រង់ AMR  ដែលមានករណីតិចតួច ឬបាក់តេរី  isolates តិចតួច : ការប៉ាន់ប្រមាណ ប្រហែលជាមិនអាចជឿទុកចិត្តបាន។</t>
+  </si>
+  <si>
+    <t>គ្មានទិន្នន័យ ដើម្បីបង្ហាញសម្រាប់មេរោគនេះទេ។</t>
+  </si>
+  <si>
+    <t>សុំាទៅនឹង Carbapenems Over Time</t>
+  </si>
+  <si>
+    <t>សុំាទៅនឹង  Cephalosporins ជំនាន់ទី៣ Over Time</t>
+  </si>
+  <si>
+    <t>សុំាទៅនឹង Fluoroquinolones Over Time</t>
+  </si>
+  <si>
+    <t>សុំាទៅនឹង Penicillin G Over Time</t>
+  </si>
+  <si>
+    <t>សុំាទៅនឹង Penicillin G - meningitis Over Time</t>
+  </si>
+  <si>
+    <t>សុំាទៅនឹង Oxacillin Over Time</t>
+  </si>
+  <si>
+    <t>វត្ថុវិភាគ，isolates</t>
+  </si>
+  <si>
+    <t>អ្នកជំងឺចូលរួមការអង្កេតតាមដាន</t>
+  </si>
+  <si>
+    <t>ពីការបណ្តុះមេរោគដែលដុះមេរោគ</t>
+  </si>
+  <si>
+    <t>មិនអាចភ្ជាប់ម៉ាស៊ីនមេទៅបានទេ។ សូមពិនិត្យមើលដំណើរការអ៊ីនធឺណិត។</t>
+  </si>
+  <si>
+    <t>ព័ត៌មានសម្គាល់ការតភ្ជាប់មិនត្រឹមត្រូវ។</t>
+  </si>
+  <si>
+    <t>បញ្ហាជាមួយព័ត៌មានសម្គាល់។ សូមទំនាក់ទំនងទៅកាន់ផ្នែកគាំទ្រ ACORN។</t>
+  </si>
+  <si>
+    <t>ប្រតិបត្តិការ .acorn ដែលបានជ្រើសរើស</t>
+  </si>
+  <si>
+    <t>ប្រតិបត្តិការ .acorn</t>
+  </si>
+  <si>
+    <t>នៃការបណ្តុះមេរោគដែលដុះមេរោគ</t>
+  </si>
+  <si>
+    <t>វត្ថុវិភាគនៃអ្នកចូលរួមអង្កេតតាមដានម្នាក់</t>
+  </si>
+  <si>
+    <t>អត្រាសម្រាកព្យាបាលទៅតាមប្រភេទនីមួយៗនៃអគារក្នុងមួយខែ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> យើងមិនអាចទាញយក ទិន្នន័យវចនានុក្រមមន្ទីរពិសោធន៍បានទេ ។ សូមទំនាក់ទំនង ទៅកាន់ផ្នែកគាំទ្រ ACORN។</t>
+  </si>
+  <si>
+    <t>យើងមិនអាចទាញយក ឯកសារកូដមន្ទីរពិសោធន៍បានទេ ។​សូមទំនាក់ទំនងទៅកាន់ ACORN support។</t>
+  </si>
+  <si>
+    <t>កំណត់ត្រាវគ្គការបង្ករោគមួយចំនួន (F02) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។ កំណត់ត្រាទាំងនេះ ត្រូវបានដកចេញ ។</t>
+  </si>
+  <si>
+    <t>លទ្ធផលគ្លីនិក និងលទ្ធផល២៨ថ្ងៃ គឺមិនសមស្របចំពោះមួយអ្នកជំងឺដែលស្លាប់មួយចំនួន។</t>
+  </si>
+  <si>
+    <t>កាលបរិច្ឆេទទាំងអស់នៃអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន HAI មានកាលបរិច្ឆេទត្រូវគ្នាទៅនឹងសំណុំទិន្នន័យអង្កេតតាមដាន HAI</t>
+  </si>
+  <si>
+    <t>កាលបរិច្ឆេទមួយចំនួននៃអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន HAI មានកាលបរិច្ឆេទត្រូវគ្នាទៅនឹងសំណុំទិន្នន័យអង្កេតតាមដាន HAI</t>
+  </si>
+  <si>
+    <t>មិនមានករណី មិនប្រក្រតីទេ (មួយ CAI / early HAI តែគ្មានការជាន់គ្នាទេ)។</t>
+  </si>
+  <si>
+    <t>មានជួរដេកដែលបាត់ ‘orgname'​។</t>
+  </si>
+  <si>
+    <t>‘orgname' ទាំងអស់ត្រូវបានផ្តល់ជូន។</t>
+  </si>
+  <si>
+    <t>មានជួរដេកដែលបាត់ ‘specgroup'។</t>
+  </si>
+  <si>
+    <t>‘specgroup' ទាំងអស់ត្រូវបានផ្តល់ជូន។</t>
+  </si>
+  <si>
+    <t>មានជួរដេកដែល 'specdate' គឺបន្ទាប់ពីថ្ងៃនេះ។</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'specdate' ទាំងអស់គឺថ្ងៃនេះ ឬមុនថ្ងៃនេះ។</t>
+  </si>
+  <si>
+    <t>មានជួរដេកដែលបាត់ ‘specdate'។</t>
+  </si>
+  <si>
+    <t>មានជួរដេកដែលបាត់ ‘specid'។</t>
+  </si>
+  <si>
+    <t>‘specid' ទាំងអស់ត្រូវបានផ្តល់ជូន។</t>
+  </si>
+  <si>
+    <t>មានជួរដេកដែលបាត់ ‘patid'។</t>
+  </si>
+  <si>
+    <t>‘patid' ទាំងអស់ត្រូវបានផ្តល់ជូន។</t>
+  </si>
+  <si>
+    <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មិនមានជួរឈរតិចទេ។</t>
+  </si>
+  <si>
+    <t>សំណុំទិន្នន័យមន្ទីរពិសោធន៍មានជួរឈរតិច។</t>
+  </si>
+  <si>
+    <t>ទិន្នន័យមន្ទីរពិសោធន៍ត្រូវបានផ្ដល់ដោយជោគជ័យ។</t>
+  </si>
+  <si>
+    <t>លទ្ធផលគ្លីនិក និងលទ្ធផល២៨ថ្ងៃគឺស្របគ្នា។</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'patient id' ខាងក្រោមគឺមានបញ្ហា​(មានការជាន់គ្នាក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)៖ </t>
+  </si>
+  <si>
+    <t>មិនមានបញ្ហា (មានការជាន់គ្នា ក្នុងផ្ទាំងនៃការយកវត្ថុវិភាគ)។</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'patient id' ខាងក្រោមគឺមានករណីមិនប្រក្រតី (one CAI / HAI មុន តែគ្មានការជាន់គ្នាទេ)៖ </t>
+  </si>
+  <si>
+    <t>មានកំហុសក្នុងការរួមបញ្ចូលទិន្នន័យគ្លីនិកនិងមន្ទីរពិសោធន៍។</t>
+  </si>
+  <si>
+    <t>មើលតាមអគារនីមួយៗ</t>
+  </si>
+  <si>
+    <t>កំណត់ត្រាលទ្ធផលនៅមន្ទីរពេទ្យមួយចំនួន (F03) មិនត្រូវគ្នាជាមួយនឹងអ្នកជំងឺដែលចូលរួមការអង្កេតតាមដាន (F01)។</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,13 +1137,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Khmer OS Siemreap"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Khmer OS Siemreap"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Khmer OS Siemreap"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Khmer OS Siemreap"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -618,11 +1184,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,1477 +1542,1482 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="98.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.5" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B36" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B40" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B41" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B42" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B43" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B44" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B45" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B46" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B47" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B48" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="B49" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B50" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B51" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="B52" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B53" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B54" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="B55" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="B56" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B57" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B58" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B59" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B60" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B61" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="B62" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B63" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B64" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="B65" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="B66" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B67" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B68" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B69" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B70" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="B71" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="B72" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="B73" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="B74" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="B75" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="B76" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="B77" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="B78" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B78" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="B79" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="B80" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="B81" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B82" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="B83" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B83" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="B84" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="B85" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B85" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B86" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B86" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B87" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B87" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="B88" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="B88" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="B89" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B89" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="B90" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="B90" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="B91" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B91" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="B92" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B92" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="B93" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B93" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="B94" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B94" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="B95" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B95" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="B96" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="B96" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="B97" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="B97" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="B98" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="B98" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="B99" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B99" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="B100" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="B100" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="B101" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="B101" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="B102" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="B102" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="B103" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>103</v>
       </c>
-      <c r="B103" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="B104" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>104</v>
       </c>
-      <c r="B104" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="B105" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="B105" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="B106" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="B106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="B107" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B107" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="B108" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="B108" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="B109" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="B109" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="B110" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>110</v>
       </c>
-      <c r="B110" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="B111" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>111</v>
       </c>
-      <c r="B111" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="B112" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="B112" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="B113" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>113</v>
       </c>
-      <c r="B113" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="B114" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="B114" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="B115" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>115</v>
       </c>
-      <c r="B115" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="B116" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="B116" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="B117" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="B117" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="B118" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="B118" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="B119" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="B119" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="B120" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>120</v>
       </c>
-      <c r="B120" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="B121" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B121" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="B122" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="B122" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="B123" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="B123" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="B124" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="B124" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="B125" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="B125" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="B126" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
         <v>126</v>
       </c>
-      <c r="B126" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="B127" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
         <v>127</v>
       </c>
-      <c r="B127" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="B128" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>128</v>
       </c>
-      <c r="B128" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="B129" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="B129" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="B130" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>130</v>
       </c>
-      <c r="B130" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="B131" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>131</v>
       </c>
-      <c r="B131" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="B132" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="B132" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="B133" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="B133" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="B134" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>134</v>
       </c>
-      <c r="B134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="B135" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="B135" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="B136" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>136</v>
       </c>
-      <c r="B136" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="B137" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="B137" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="B138" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="B138" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="B139" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>139</v>
       </c>
-      <c r="B139" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="B140" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>140</v>
       </c>
-      <c r="B140" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="B141" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>141</v>
       </c>
-      <c r="B141" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="B142" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B142" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="B143" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
         <v>143</v>
       </c>
-      <c r="B143" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="B144" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="B144" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="B145" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
         <v>145</v>
       </c>
-      <c r="B145" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="B146" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
         <v>146</v>
       </c>
-      <c r="B146" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="B147" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
         <v>147</v>
       </c>
-      <c r="B147" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="B148" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>148</v>
       </c>
-      <c r="B148" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="B149" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
         <v>149</v>
       </c>
-      <c r="B149" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="B150" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>150</v>
       </c>
-      <c r="B150" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="B151" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
         <v>151</v>
       </c>
-      <c r="B151" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="B152" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
         <v>152</v>
       </c>
-      <c r="B152" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="B153" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
         <v>153</v>
       </c>
-      <c r="B153" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="B154" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
         <v>154</v>
       </c>
-      <c r="B154" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="B155" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
         <v>155</v>
       </c>
-      <c r="B155" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="B156" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
         <v>156</v>
       </c>
-      <c r="B156" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="B157" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
         <v>157</v>
       </c>
-      <c r="B157" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="B158" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
         <v>158</v>
       </c>
-      <c r="B158" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="B159" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
         <v>159</v>
       </c>
-      <c r="B159" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="B160" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
         <v>160</v>
       </c>
-      <c r="B160" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="B161" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
         <v>161</v>
       </c>
-      <c r="B161" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="B162" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
         <v>162</v>
       </c>
-      <c r="B162" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="B163" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
         <v>163</v>
       </c>
-      <c r="B163" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="B164" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
         <v>164</v>
       </c>
-      <c r="B164" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="B165" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
         <v>165</v>
       </c>
-      <c r="B165" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="B166" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
         <v>166</v>
       </c>
-      <c r="B166" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="B167" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
         <v>167</v>
       </c>
-      <c r="B167" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+      <c r="B168" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="B168" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="B169" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
         <v>169</v>
       </c>
-      <c r="B169" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+      <c r="B170" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
         <v>170</v>
       </c>
-      <c r="B170" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="B171" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="B171" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="B172" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="B172" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="B173" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>173</v>
       </c>
-      <c r="B173" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+      <c r="B174" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="B174" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+      <c r="B175" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
         <v>175</v>
       </c>
-      <c r="B175" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="B176" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
         <v>176</v>
       </c>
-      <c r="B176" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="B177" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
         <v>177</v>
       </c>
-      <c r="B177" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="B178" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>178</v>
       </c>
-      <c r="B178" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="B179" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
         <v>179</v>
       </c>
-      <c r="B179" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="B180" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="B180" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="B181" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
         <v>181</v>
       </c>
-      <c r="B181" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="B182" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
         <v>182</v>
       </c>
-      <c r="B182" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>183</v>
-      </c>
-      <c r="B183" t="s">
-        <v>2</v>
+      <c r="B183" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/misc/translations/en_kh.xlsx
+++ b/misc/translations/en_kh.xlsx
@@ -483,6 +483,11 @@
           <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TBT</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -622,6 +627,11 @@
           <t>AMR</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TBT</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1541,6 +1551,11 @@
           <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TBT</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1954,6 +1969,11 @@
       <c r="A135" t="inlineStr">
         <is>
           <t>Specimens</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>TBT</t>
         </is>
       </c>
     </row>
